--- a/Theory.xlsx
+++ b/Theory.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Why do we need managed code</t>
   </si>
@@ -151,6 +151,52 @@
 • It also provides reference checking which means it checks whether the reference point to the valid object or not and also check they are not duplicate.
 What are the disadvantages of Managed Code?
 The main disadvantage of managed language is that you are not allowed to allocate memory directly, or you cannot get the low-level access of the CPU architecture.</t>
+  </si>
+  <si>
+    <t>Class purposes</t>
+  </si>
+  <si>
+    <t>Class signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A class is like a blueprint of a specific object. In the real world, every object has some color, shape, and functionalities - for example, the luxury car Ferrari. Ferrari is an object of the luxury car type. The luxury car is a class that indicates some characteristics like speed, color, shape, interior, etc. So any company that makes a car that meets those requirements is an object of the luxury car type. For example, every single car of BMW, Lamborghini, Cadillac are an object of the class called 'Luxury Car'. Here, 'Luxury Car' is a class, and every single physical car is an object of the luxury car class.
+Likewise, in object-oriented programming, a class defines some properties, fields, events, methods, etc. A class defines the kinds of data and the functionality their objects will have.
+A class enables you to create your custom types by grouping variables of other types, methods, and events.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classes are declared by using the class keyword followed by a unique identifier, as shown in the following example:
+The class keyword is preceded by the access level. Because public is used in this case, anyone can create instances of this class. The name of the class follows the class keyword. The name of the class must be a valid C# identifier name. The remainder of the definition is the class body, where the behavior and data are defined. Fields, properties, methods, and events on a class are collectively referred to as class members.
+</t>
+  </si>
+  <si>
+    <t>Class members can be of the following types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Constants representing constant values
+• Fields representing variables
+• Methods providing services like calculation or other actions on its members
+• Properties that define the class features and include actions to fetch and modify them
+• Events generated to communicate between different classes /objects
+• Indexers that help in accessing class instances similar to arrays
+• Operators that define semantics when used in expressions with class instances
+• Instance constructors to initialize members of class instances
+• Static constructor to initialize the class itself
+• Destructors to execute actions necessary to be performed before class instances are discarded
+• Types that are local to the class (nested type)
+</t>
+  </si>
+  <si>
+    <t>Access modifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public: Access is not restricted.
+protected: Access is limited to the containing class or types derived from the containing class.
+internal: Access is limited to the current assembly.
+protected internal: Access is limited to the current assembly or types derived from the containing class.
+private: Access is limited to the containing type.
+private protected: Access is limited to the containing class or types derived from the containing class within the current assembly.
+</t>
   </si>
 </sst>
 </file>
@@ -619,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -746,6 +792,38 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20" spans="1:2" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="225" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:B7"/>

--- a/Theory.xlsx
+++ b/Theory.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Ко многим преимуществам управляемого кода относятся: современные способы управления памятью, возможность программирования на разных языках, повышение безопасности, поддержка управления версиями и четкая организация взаимодействия программных компонентов.</t>
   </si>
@@ -321,6 +322,238 @@
   </si>
   <si>
     <t>Вложеные типы</t>
+  </si>
+  <si>
+    <t>Отличия в многозадачности на основе процессов и потоков могут быть сведены к
+следующему: многозадачность на основе процессов организуется для параллельного
+выполнения программ, а многозадачность на основе потоков — для параллельного выполнения отдельных частей одной программы.</t>
+  </si>
+  <si>
+    <t>Зачем нужны процессы и потоки</t>
+  </si>
+  <si>
+    <t>Разница между потоком и процессом</t>
+  </si>
+  <si>
+    <t>Потоки и процессы windows</t>
+  </si>
+  <si>
+    <t>Приоритеты потоков и процессов</t>
+  </si>
+  <si>
+    <t>Потоки .NET</t>
+  </si>
+  <si>
+    <t>Классы потоков .NET + culture info, Iprincipal</t>
+  </si>
+  <si>
+    <t>Модель выполнения и приоритеты</t>
+  </si>
+  <si>
+    <t>Операции с потоками</t>
+  </si>
+  <si>
+    <t>На заре компьютерной эры операционные системы не поддерживали концепцию
+потоков. Точнее, существовал всего один поток исполнения, обслуживающий как код
+операционной системы, так и код приложений. В результате задание, выполнение
+которого требовало времени, препятствовало выполнению других заданий. 
+К примеру, во времена 16-разрядной системы Windows обычной была ситуация, когда
+распечатывающее документ приложение приостанавливало работу всей машины.
+Операционная система и остальные приложения просто «зависали». А если вдруг
+в приложении возникала ошибка, которая приводила к бесконечному циклу, она
+вообще порождала массу проблем.</t>
+  </si>
+  <si>
+    <t>Каждый поток в системе имеет уровень приоритета (priority level), который представляет собой число в диапазоне от 0 до 31. Диапазон приоритета от 1 до 15 известен как диапазон динамического приоритета (dynamic priority), а диапазон от 16 до 31 - как диапазон приоритета реального времени (realtime priority).
+Имя класса приоритета     Уровень приоритета класса
+Idle                                               4
+Normal                                        8
+High                                              13
+Realtime                                     24</t>
+  </si>
+  <si>
+    <t>В среде .NET Framework определены две разновидности потоков: приоритетный
+и фоновый. По умолчанию создаваемый поток автоматически становится приоритетным, но его можно сделать фоновым. Единственное отличие приоритетных потоков от
+фоновых заключается в том, что фоновый поток автоматически завершается, если в его
+процессе остановлены все приоритетные потоки.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Join() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Блокирует вызывающий поток до завершения потока, представленного экземпляром, продолжая отправлять стандартные сообщения COM и SendMessage.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Join(Int32) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Блокирует вызывающий поток до завершения потока, представленного экземпляром, или истечения указанного времени, продолжая отправлять стандартные сообщения COM и SendMessage.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Start() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Вынуждает операционную систему изменить состояние текущего экземпляра на Running.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sleep(Int32) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Приостанавливает текущий поток на заданное количество миллисекунд.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пространство имен System.Threading:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> предоставляет классы и интерфейсы для многопоточного программирования. Помимо классов синхронизации работы потоков и доступа к данным (Mutex, Monitor, Interlocked, AutoResetEvent и т. д.), это пространство имен содержит класс ThreadPool, позволяющий использовать пул предоставляемых системой потоков, и класс Timer, выполняющий методы обратного вызова в потоках пула потоков.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CultureInfo: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>о</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">бъект, представляющий язык и региональные параметры, используемые текущим потоком.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Объект Principal: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>представляет контекст безопасности пользователя, от имени которого работает код, включая удостоверение пользователя ( IIdentity ) и все роли, к которым они относятся.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -664,7 +897,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +1008,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -879,4 +1112,82 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="98.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>